--- a/docs/examples/key_value_pairs.xlsx
+++ b/docs/examples/key_value_pairs.xlsx
@@ -17,22 +17,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
+    <t>key2</t>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
+    <t>key1</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
     <t>key3</t>
   </si>
   <si>
     <t>value3</t>
-  </si>
-  <si>
-    <t>key1</t>
-  </si>
-  <si>
-    <t>value1</t>
-  </si>
-  <si>
-    <t>key2</t>
-  </si>
-  <si>
-    <t>value2</t>
   </si>
 </sst>
 </file>

--- a/docs/examples/key_value_pairs.xlsx
+++ b/docs/examples/key_value_pairs.xlsx
@@ -17,22 +17,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
+    <t>key1</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>key2</t>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
     <t>key3</t>
   </si>
   <si>
     <t>value3</t>
-  </si>
-  <si>
-    <t>key1</t>
-  </si>
-  <si>
-    <t>value1</t>
-  </si>
-  <si>
-    <t>key2</t>
-  </si>
-  <si>
-    <t>value2</t>
   </si>
 </sst>
 </file>

--- a/docs/examples/key_value_pairs.xlsx
+++ b/docs/examples/key_value_pairs.xlsx
@@ -17,22 +17,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
+    <t>key3</t>
+  </si>
+  <si>
+    <t>value3</t>
+  </si>
+  <si>
+    <t>key2</t>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
     <t>key1</t>
   </si>
   <si>
     <t>value1</t>
-  </si>
-  <si>
-    <t>key2</t>
-  </si>
-  <si>
-    <t>value2</t>
-  </si>
-  <si>
-    <t>key3</t>
-  </si>
-  <si>
-    <t>value3</t>
   </si>
 </sst>
 </file>
